--- a/Y_pred_copy.xlsx
+++ b/Y_pred_copy.xlsx
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1925,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2016,21 +2016,21 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2499,14 +2499,14 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2996,14 +2996,14 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3472,14 +3472,14 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3962,14 +3962,14 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5110,14 +5110,14 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7182,14 +7182,14 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7546,14 +7546,14 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8645,7 +8645,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8918,7 +8918,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9590,7 +9590,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10388,14 +10388,14 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10507,7 +10507,7 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10577,7 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10647,7 +10647,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11004,7 +11004,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11025,7 +11025,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -11081,14 +11081,14 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11522,14 +11522,14 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11914,7 +11914,7 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12019,7 +12019,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12222,7 +12222,7 @@
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12250,7 +12250,7 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
     <row r="1709">
       <c r="A1709" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12614,7 +12614,7 @@
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12670,7 +12670,7 @@
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12726,7 @@
     <row r="1757">
       <c r="A1757" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12887,7 +12887,7 @@
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
     <row r="1799">
       <c r="A1799" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13083,14 +13083,14 @@
     <row r="1808">
       <c r="A1808" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
     <row r="1820">
       <c r="A1820" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -13251,7 +13251,7 @@
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13496,7 +13496,7 @@
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13727,7 +13727,7 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14042,7 +14042,7 @@
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14210,7 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14252,7 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14322,14 +14322,14 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14364,7 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -14525,7 +14525,7 @@
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14581,7 +14581,7 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14602,7 @@
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14637,7 +14637,7 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14973,7 +14973,7 @@
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
     <row r="2087">
       <c r="A2087" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15127,7 +15127,7 @@
     <row r="2100">
       <c r="A2100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15183,7 +15183,7 @@
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15351,7 +15351,7 @@
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -15512,7 +15512,7 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15932,7 +15932,7 @@
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16226,7 +16226,7 @@
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -16758,7 +16758,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16947,7 +16947,7 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17185,7 +17185,7 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17276,7 +17276,7 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17465,7 +17465,7 @@
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17682,7 +17682,7 @@
     <row r="2465">
       <c r="A2465" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17759,7 +17759,7 @@
     <row r="2476">
       <c r="A2476" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17822,7 +17822,7 @@
     <row r="2485">
       <c r="A2485" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17927,7 +17927,7 @@
     <row r="2500">
       <c r="A2500" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18165,7 +18165,7 @@
     <row r="2534">
       <c r="A2534" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -18200,14 +18200,14 @@
     <row r="2539">
       <c r="A2539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2540">
       <c r="A2540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18305,7 +18305,7 @@
     <row r="2554">
       <c r="A2554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18466,7 @@
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18550,7 +18550,7 @@
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18816,7 @@
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18970,7 @@
     <row r="2649">
       <c r="A2649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19313,7 +19313,7 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -19523,7 +19523,7 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19663,7 +19663,7 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19726,7 +19726,7 @@
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -19985,7 +19985,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20013,7 +20013,7 @@
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -20209,7 +20209,7 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -20230,7 +20230,7 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20279,7 +20279,7 @@
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20300,14 +20300,14 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20433,7 +20433,7 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20482,7 +20482,7 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20608,14 +20608,14 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20720,7 +20720,7 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20979,7 +20979,7 @@
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -21070,7 +21070,7 @@
     <row r="2949">
       <c r="A2949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21126,14 +21126,14 @@
     <row r="2957">
       <c r="A2957" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="2958">
       <c r="A2958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21147,7 +21147,7 @@
     <row r="2960">
       <c r="A2960" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -21168,7 +21168,7 @@
     <row r="2963">
       <c r="A2963" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -21343,7 +21343,7 @@
     <row r="2988">
       <c r="A2988" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21707,7 +21707,7 @@
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -21805,7 +21805,7 @@
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21931,7 +21931,7 @@
     <row r="3072">
       <c r="A3072" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21952,7 +21952,7 @@
     <row r="3075">
       <c r="A3075" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22008,7 +22008,7 @@
     <row r="3083">
       <c r="A3083" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
     <row r="3093">
       <c r="A3093" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22197,7 +22197,7 @@
     <row r="3110">
       <c r="A3110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22246,7 +22246,7 @@
     <row r="3117">
       <c r="A3117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22260,7 +22260,7 @@
     <row r="3119">
       <c r="A3119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22274,7 +22274,7 @@
     <row r="3121">
       <c r="A3121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22393,7 +22393,7 @@
     <row r="3138">
       <c r="A3138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
     <row r="3142">
       <c r="A3142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22715,7 +22715,7 @@
     <row r="3184">
       <c r="A3184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22750,7 @@
     <row r="3189">
       <c r="A3189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22897,7 +22897,7 @@
     <row r="3210">
       <c r="A3210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22946,7 +22946,7 @@
     <row r="3217">
       <c r="A3217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23051,7 +23051,7 @@
     <row r="3232">
       <c r="A3232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23443,7 +23443,7 @@
     <row r="3288">
       <c r="A3288" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23527,7 +23527,7 @@
     <row r="3300">
       <c r="A3300" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23562,7 +23562,7 @@
     <row r="3305">
       <c r="A3305" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23737,7 +23737,7 @@
     <row r="3330">
       <c r="A3330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23779,14 +23779,14 @@
     <row r="3336">
       <c r="A3336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3337">
       <c r="A3337" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -23814,7 +23814,7 @@
     <row r="3341">
       <c r="A3341" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23877,7 +23877,7 @@
     <row r="3350">
       <c r="A3350" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23912,7 +23912,7 @@
     <row r="3355">
       <c r="A3355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24017,7 +24017,7 @@
     <row r="3370">
       <c r="A3370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24080,7 +24080,7 @@
     <row r="3379">
       <c r="A3379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24101,7 +24101,7 @@
     <row r="3382">
       <c r="A3382" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -24248,7 +24248,7 @@
     <row r="3403">
       <c r="A3403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
     <row r="3433">
       <c r="A3433" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -24493,7 +24493,7 @@
     <row r="3438">
       <c r="A3438" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -24871,7 +24871,7 @@
     <row r="3492">
       <c r="A3492" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25319,14 +25319,14 @@
     <row r="3556">
       <c r="A3556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3557">
       <c r="A3557" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -25389,7 +25389,7 @@
     <row r="3566">
       <c r="A3566" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -25473,21 +25473,21 @@
     <row r="3578">
       <c r="A3578" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3579">
       <c r="A3579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3580">
       <c r="A3580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25676,7 +25676,7 @@
     <row r="3607">
       <c r="A3607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
     <row r="3619">
       <c r="A3619" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -25774,7 +25774,7 @@
     <row r="3621">
       <c r="A3621" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25823,7 +25823,7 @@
     <row r="3628">
       <c r="A3628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26096,14 +26096,14 @@
     <row r="3667">
       <c r="A3667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3668">
       <c r="A3668" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26208,7 +26208,7 @@
     <row r="3683">
       <c r="A3683" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -26299,7 +26299,7 @@
     <row r="3696">
       <c r="A3696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
     <row r="3702">
       <c r="A3702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26551,7 +26551,7 @@
     <row r="3732">
       <c r="A3732" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -26579,7 +26579,7 @@
     <row r="3736">
       <c r="A3736" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -26936,7 +26936,7 @@
     <row r="3787">
       <c r="A3787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
     <row r="3824">
       <c r="A3824" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27237,7 +27237,7 @@
     <row r="3830">
       <c r="A3830" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -27251,7 +27251,7 @@
     <row r="3832">
       <c r="A3832" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
     <row r="3844">
       <c r="A3844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27398,7 +27398,7 @@
     <row r="3853">
       <c r="A3853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27706,14 +27706,14 @@
     <row r="3897">
       <c r="A3897" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3898">
       <c r="A3898" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28000,7 +28000,7 @@
     <row r="3939">
       <c r="A3939" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28014,7 +28014,7 @@
     <row r="3941">
       <c r="A3941" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
     <row r="3944">
       <c r="A3944" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28112,7 +28112,7 @@
     <row r="3955">
       <c r="A3955" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -28252,7 +28252,7 @@
     <row r="3975">
       <c r="A3975" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -28329,7 +28329,7 @@
     <row r="3986">
       <c r="A3986" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -28364,7 +28364,7 @@
     <row r="3991">
       <c r="A3991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28574,7 +28574,7 @@
     <row r="4021">
       <c r="A4021" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28651,7 +28651,7 @@
     <row r="4032">
       <c r="A4032" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -28980,7 +28980,7 @@
     <row r="4079">
       <c r="A4079" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
     <row r="4134">
       <c r="A4134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
     <row r="4150">
       <c r="A4150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29498,7 +29498,7 @@
     <row r="4153">
       <c r="A4153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29512,7 +29512,7 @@
     <row r="4155">
       <c r="A4155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -29624,7 +29624,7 @@
     <row r="4171">
       <c r="A4171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29659,7 +29659,7 @@
     <row r="4176">
       <c r="A4176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29687,7 +29687,7 @@
     <row r="4180">
       <c r="A4180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -29778,7 +29778,7 @@
     <row r="4193">
       <c r="A4193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -29855,7 +29855,7 @@
     <row r="4204">
       <c r="A4204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -29883,7 +29883,7 @@
     <row r="4208">
       <c r="A4208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30016,7 +30016,7 @@
     <row r="4227">
       <c r="A4227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -30044,7 +30044,7 @@
     <row r="4231">
       <c r="A4231" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30079,7 +30079,7 @@
     <row r="4236">
       <c r="A4236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30121,7 +30121,7 @@
     <row r="4242">
       <c r="A4242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30289,7 +30289,7 @@
     <row r="4266">
       <c r="A4266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30485,14 +30485,14 @@
     <row r="4294">
       <c r="A4294" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4295">
       <c r="A4295" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30590,7 +30590,7 @@
     <row r="4309">
       <c r="A4309" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30744,7 +30744,7 @@
     <row r="4331">
       <c r="A4331" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30793,7 +30793,7 @@
     <row r="4338">
       <c r="A4338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -30856,7 +30856,7 @@
     <row r="4347">
       <c r="A4347" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30947,7 +30947,7 @@
     <row r="4360">
       <c r="A4360" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30961,7 +30961,7 @@
     <row r="4362">
       <c r="A4362" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -31010,7 +31010,7 @@
     <row r="4369">
       <c r="A4369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -31080,7 +31080,7 @@
     <row r="4379">
       <c r="A4379" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
     <row r="4384">
       <c r="A4384" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -31192,7 +31192,7 @@
     <row r="4395">
       <c r="A4395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31227,7 +31227,7 @@
     <row r="4400">
       <c r="A4400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
     <row r="4408">
       <c r="A4408" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31346,7 +31346,7 @@
     <row r="4417">
       <c r="A4417" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -31493,14 +31493,14 @@
     <row r="4438">
       <c r="A4438" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4439">
       <c r="A4439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31521,7 +31521,7 @@
     <row r="4442">
       <c r="A4442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31689,14 +31689,14 @@
     <row r="4466">
       <c r="A4466" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4467">
       <c r="A4467" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -31745,7 +31745,7 @@
     <row r="4474">
       <c r="A4474" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -31913,7 +31913,7 @@
     <row r="4498">
       <c r="A4498" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32130,7 +32130,7 @@
     <row r="4529">
       <c r="A4529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -32172,7 +32172,7 @@
     <row r="4535">
       <c r="A4535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32494,7 +32494,7 @@
     <row r="4581">
       <c r="A4581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -32522,7 +32522,7 @@
     <row r="4585">
       <c r="A4585" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32676,7 +32676,7 @@
     <row r="4607">
       <c r="A4607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -32900,7 +32900,7 @@
     <row r="4639">
       <c r="A4639" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -33152,7 +33152,7 @@
     <row r="4675">
       <c r="A4675" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -33264,7 +33264,7 @@
     <row r="4691">
       <c r="A4691" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -33537,7 +33537,7 @@
     <row r="4730">
       <c r="A4730" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -33635,7 +33635,7 @@
     <row r="4744">
       <c r="A4744" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -33684,7 +33684,7 @@
     <row r="4751">
       <c r="A4751" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -33747,7 +33747,7 @@
     <row r="4760">
       <c r="A4760" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -33775,7 +33775,7 @@
     <row r="4764">
       <c r="A4764" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -33789,7 +33789,7 @@
     <row r="4766">
       <c r="A4766" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -33894,7 +33894,7 @@
     <row r="4781">
       <c r="A4781" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -33992,7 +33992,7 @@
     <row r="4795">
       <c r="A4795" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34146,7 +34146,7 @@
     <row r="4817">
       <c r="A4817" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34188,7 +34188,7 @@
     <row r="4823">
       <c r="A4823" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34209,7 +34209,7 @@
     <row r="4826">
       <c r="A4826" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -34398,7 +34398,7 @@
     <row r="4853">
       <c r="A4853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34433,7 +34433,7 @@
     <row r="4858">
       <c r="A4858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34447,7 +34447,7 @@
     <row r="4860">
       <c r="A4860" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -34552,7 +34552,7 @@
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -34580,7 +34580,7 @@
     <row r="4879">
       <c r="A4879" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -34594,7 +34594,7 @@
     <row r="4881">
       <c r="A4881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34720,7 +34720,7 @@
     <row r="4899">
       <c r="A4899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -34755,7 +34755,7 @@
     <row r="4904">
       <c r="A4904" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34818,7 +34818,7 @@
     <row r="4913">
       <c r="A4913" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -34881,7 +34881,7 @@
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34972,7 +34972,7 @@
     <row r="4935">
       <c r="A4935" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35133,14 +35133,14 @@
     <row r="4958">
       <c r="A4958" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4959">
       <c r="A4959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35161,7 +35161,7 @@
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35210,7 +35210,7 @@
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35231,7 +35231,7 @@
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -35357,7 +35357,7 @@
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -35679,7 +35679,7 @@
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35798,7 +35798,7 @@
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35938,7 +35938,7 @@
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -36288,14 +36288,14 @@
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -36400,7 +36400,7 @@
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -36750,7 +36750,7 @@
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36820,7 +36820,7 @@
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -36897,7 +36897,7 @@
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -37240,7 +37240,7 @@
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -37303,7 +37303,7 @@
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -37583,7 +37583,7 @@
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38010,7 +38010,7 @@
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -38122,7 +38122,7 @@
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38206,7 +38206,7 @@
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -38290,7 +38290,7 @@
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -38360,7 +38360,7 @@
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38388,7 +38388,7 @@
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38465,7 +38465,7 @@
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -38640,7 +38640,7 @@
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38843,7 +38843,7 @@
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -38857,7 +38857,7 @@
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -38934,7 +38934,7 @@
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38969,7 +38969,7 @@
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39060,7 +39060,7 @@
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -39109,7 +39109,7 @@
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -39151,7 +39151,7 @@
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39186,7 +39186,7 @@
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39249,7 +39249,7 @@
     <row r="5546">
       <c r="A5546" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -39277,7 +39277,7 @@
     <row r="5550">
       <c r="A5550" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39305,7 +39305,7 @@
     <row r="5554">
       <c r="A5554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39333,7 +39333,7 @@
     <row r="5558">
       <c r="A5558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39459,7 +39459,7 @@
     <row r="5576">
       <c r="A5576" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -39494,7 +39494,7 @@
     <row r="5581">
       <c r="A5581" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -39788,7 +39788,7 @@
     <row r="5623">
       <c r="A5623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39830,7 +39830,7 @@
     <row r="5629">
       <c r="A5629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39872,7 +39872,7 @@
     <row r="5635">
       <c r="A5635" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39991,7 +39991,7 @@
     <row r="5652">
       <c r="A5652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40012,7 +40012,7 @@
     <row r="5655">
       <c r="A5655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40285,7 +40285,7 @@
     <row r="5694">
       <c r="A5694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40425,7 +40425,7 @@
     <row r="5714">
       <c r="A5714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40509,7 +40509,7 @@
     <row r="5726">
       <c r="A5726" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -40523,7 +40523,7 @@
     <row r="5728">
       <c r="A5728" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -40614,7 +40614,7 @@
     <row r="5741">
       <c r="A5741" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40838,7 +40838,7 @@
     <row r="5773">
       <c r="A5773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40866,7 +40866,7 @@
     <row r="5777">
       <c r="A5777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40922,7 +40922,7 @@
     <row r="5785">
       <c r="A5785" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -40943,7 +40943,7 @@
     <row r="5788">
       <c r="A5788" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -41090,7 +41090,7 @@
     <row r="5809">
       <c r="A5809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41104,7 +41104,7 @@
     <row r="5811">
       <c r="A5811" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -41167,7 +41167,7 @@
     <row r="5820">
       <c r="A5820" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41202,7 +41202,7 @@
     <row r="5825">
       <c r="A5825" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -41258,7 +41258,7 @@
     <row r="5833">
       <c r="A5833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41384,7 +41384,7 @@
     <row r="5851">
       <c r="A5851" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41468,7 +41468,7 @@
     <row r="5863">
       <c r="A5863" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41615,14 +41615,14 @@
     <row r="5884">
       <c r="A5884" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5885">
       <c r="A5885" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41650,7 +41650,7 @@
     <row r="5889">
       <c r="A5889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41769,7 +41769,7 @@
     <row r="5906">
       <c r="A5906" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41958,7 +41958,7 @@
     <row r="5933">
       <c r="A5933" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -41979,7 +41979,7 @@
     <row r="5936">
       <c r="A5936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42021,7 +42021,7 @@
     <row r="5942">
       <c r="A5942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42308,7 +42308,7 @@
     <row r="5983">
       <c r="A5983" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -42420,7 +42420,7 @@
     <row r="5999">
       <c r="A5999" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -42567,7 +42567,7 @@
     <row r="6020">
       <c r="A6020" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -42630,7 +42630,7 @@
     <row r="6029">
       <c r="A6029" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42658,7 +42658,7 @@
     <row r="6033">
       <c r="A6033" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42700,7 +42700,7 @@
     <row r="6039">
       <c r="A6039" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42924,7 +42924,7 @@
     <row r="6071">
       <c r="A6071" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43085,7 +43085,7 @@
     <row r="6094">
       <c r="A6094" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -43190,7 +43190,7 @@
     <row r="6109">
       <c r="A6109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43253,21 +43253,21 @@
     <row r="6118">
       <c r="A6118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6119">
       <c r="A6119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6120">
       <c r="A6120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -43365,7 +43365,7 @@
     <row r="6134">
       <c r="A6134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43393,7 +43393,7 @@
     <row r="6138">
       <c r="A6138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43407,14 +43407,14 @@
     <row r="6140">
       <c r="A6140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6141">
       <c r="A6141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43659,7 +43659,7 @@
     <row r="6176">
       <c r="A6176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43722,7 +43722,7 @@
     <row r="6185">
       <c r="A6185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -43974,7 +43974,7 @@
     <row r="6221">
       <c r="A6221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44100,7 +44100,7 @@
     <row r="6239">
       <c r="A6239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44170,7 +44170,7 @@
     <row r="6249">
       <c r="A6249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
     <row r="6271">
       <c r="A6271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44380,7 +44380,7 @@
     <row r="6279">
       <c r="A6279" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -44394,14 +44394,14 @@
     <row r="6281">
       <c r="A6281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6282">
       <c r="A6282" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -44415,7 +44415,7 @@
     <row r="6284">
       <c r="A6284" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44695,7 +44695,7 @@
     <row r="6324">
       <c r="A6324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44772,7 +44772,7 @@
     <row r="6335">
       <c r="A6335" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -44891,7 +44891,7 @@
     <row r="6352">
       <c r="A6352" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -44982,7 +44982,7 @@
     <row r="6365">
       <c r="A6365" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -45122,7 +45122,7 @@
     <row r="6385">
       <c r="A6385" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -45150,7 +45150,7 @@
     <row r="6389">
       <c r="A6389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -45178,7 +45178,7 @@
     <row r="6393">
       <c r="A6393" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -45227,7 +45227,7 @@
     <row r="6400">
       <c r="A6400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -45402,7 +45402,7 @@
     <row r="6425">
       <c r="A6425" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45472,14 +45472,14 @@
     <row r="6435">
       <c r="A6435" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6436">
       <c r="A6436" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -45556,7 +45556,7 @@
     <row r="6447">
       <c r="A6447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46018,7 +46018,7 @@
     <row r="6513">
       <c r="A6513" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -46270,14 +46270,14 @@
     <row r="6549">
       <c r="A6549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6550">
       <c r="A6550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46326,7 +46326,7 @@
     <row r="6557">
       <c r="A6557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46354,7 +46354,7 @@
     <row r="6561">
       <c r="A6561" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -46403,7 +46403,7 @@
     <row r="6568">
       <c r="A6568" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46480,7 +46480,7 @@
     <row r="6579">
       <c r="A6579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46718,7 +46718,7 @@
     <row r="6613">
       <c r="A6613" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -46767,7 +46767,7 @@
     <row r="6620">
       <c r="A6620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47453,7 +47453,7 @@
     <row r="6718">
       <c r="A6718" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -47579,7 +47579,7 @@
     <row r="6736">
       <c r="A6736" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47635,7 +47635,7 @@
     <row r="6744">
       <c r="A6744" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47698,7 +47698,7 @@
     <row r="6753">
       <c r="A6753" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -47754,14 +47754,14 @@
     <row r="6761">
       <c r="A6761" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6762">
       <c r="A6762" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47929,7 +47929,7 @@
     <row r="6786">
       <c r="A6786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48083,7 +48083,7 @@
     <row r="6808">
       <c r="A6808" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48139,7 +48139,7 @@
     <row r="6816">
       <c r="A6816" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48167,7 +48167,7 @@
     <row r="6820">
       <c r="A6820" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -48216,7 +48216,7 @@
     <row r="6827">
       <c r="A6827" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -48272,7 +48272,7 @@
     <row r="6835">
       <c r="A6835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48300,7 +48300,7 @@
     <row r="6839">
       <c r="A6839" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48461,7 +48461,7 @@
     <row r="6862">
       <c r="A6862" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -48496,7 +48496,7 @@
     <row r="6867">
       <c r="A6867" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -48615,7 +48615,7 @@
     <row r="6884">
       <c r="A6884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48727,7 +48727,7 @@
     <row r="6900">
       <c r="A6900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48769,7 +48769,7 @@
     <row r="6906">
       <c r="A6906" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48832,7 +48832,7 @@
     <row r="6915">
       <c r="A6915" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48902,7 +48902,7 @@
     <row r="6925">
       <c r="A6925" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -49084,7 +49084,7 @@
     <row r="6951">
       <c r="A6951" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49364,7 +49364,7 @@
     <row r="6991">
       <c r="A6991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49490,7 +49490,7 @@
     <row r="7009">
       <c r="A7009" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -49805,7 +49805,7 @@
     <row r="7054">
       <c r="A7054" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -49889,7 +49889,7 @@
     <row r="7066">
       <c r="A7066" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -49931,7 +49931,7 @@
     <row r="7072">
       <c r="A7072" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50008,7 +50008,7 @@
     <row r="7083">
       <c r="A7083" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -50099,14 +50099,14 @@
     <row r="7096">
       <c r="A7096" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7097">
       <c r="A7097" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50148,7 +50148,7 @@
     <row r="7103">
       <c r="A7103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50190,14 +50190,14 @@
     <row r="7109">
       <c r="A7109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7110">
       <c r="A7110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -50239,7 +50239,7 @@
     <row r="7116">
       <c r="A7116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50267,7 +50267,7 @@
     <row r="7120">
       <c r="A7120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -50281,7 +50281,7 @@
     <row r="7122">
       <c r="A7122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50561,7 +50561,7 @@
     <row r="7162">
       <c r="A7162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50624,7 +50624,7 @@
     <row r="7171">
       <c r="A7171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50729,7 +50729,7 @@
     <row r="7186">
       <c r="A7186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50764,7 +50764,7 @@
     <row r="7191">
       <c r="A7191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50799,7 +50799,7 @@
     <row r="7196">
       <c r="A7196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50883,7 +50883,7 @@
     <row r="7208">
       <c r="A7208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51072,7 +51072,7 @@
     <row r="7235">
       <c r="A7235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51191,7 +51191,7 @@
     <row r="7252">
       <c r="A7252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51240,7 +51240,7 @@
     <row r="7259">
       <c r="A7259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -51492,7 +51492,7 @@
     <row r="7295">
       <c r="A7295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51562,7 +51562,7 @@
     <row r="7305">
       <c r="A7305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51751,7 +51751,7 @@
     <row r="7332">
       <c r="A7332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -51779,7 +51779,7 @@
     <row r="7336">
       <c r="A7336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51912,7 +51912,7 @@
     <row r="7355">
       <c r="A7355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52094,7 +52094,7 @@
     <row r="7381">
       <c r="A7381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52143,7 +52143,7 @@
     <row r="7388">
       <c r="A7388" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -52164,7 +52164,7 @@
     <row r="7391">
       <c r="A7391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52367,7 +52367,7 @@
     <row r="7420">
       <c r="A7420" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -52465,7 +52465,7 @@
     <row r="7434">
       <c r="A7434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52619,7 +52619,7 @@
     <row r="7456">
       <c r="A7456" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -52654,7 +52654,7 @@
     <row r="7461">
       <c r="A7461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52724,7 +52724,7 @@
     <row r="7471">
       <c r="A7471" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -52857,7 +52857,7 @@
     <row r="7490">
       <c r="A7490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52892,7 +52892,7 @@
     <row r="7495">
       <c r="A7495" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -53200,7 +53200,7 @@
     <row r="7539">
       <c r="A7539" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53298,7 +53298,7 @@
     <row r="7553">
       <c r="A7553" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -53326,7 +53326,7 @@
     <row r="7557">
       <c r="A7557" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -53382,7 +53382,7 @@
     <row r="7565">
       <c r="A7565" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53431,7 +53431,7 @@
     <row r="7572">
       <c r="A7572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53648,7 +53648,7 @@
     <row r="7603">
       <c r="A7603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53725,7 +53725,7 @@
     <row r="7614">
       <c r="A7614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53795,14 +53795,14 @@
     <row r="7624">
       <c r="A7624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7625">
       <c r="A7625" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53823,7 +53823,7 @@
     <row r="7628">
       <c r="A7628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54131,7 +54131,7 @@
     <row r="7672">
       <c r="A7672" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -54166,7 +54166,7 @@
     <row r="7677">
       <c r="A7677" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -54390,7 +54390,7 @@
     <row r="7709">
       <c r="A7709" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -54474,7 +54474,7 @@
     <row r="7721">
       <c r="A7721" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54544,7 +54544,7 @@
     <row r="7731">
       <c r="A7731" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54607,7 +54607,7 @@
     <row r="7740">
       <c r="A7740" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -54838,7 +54838,7 @@
     <row r="7773">
       <c r="A7773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54915,7 +54915,7 @@
     <row r="7784">
       <c r="A7784" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55174,7 +55174,7 @@
     <row r="7821">
       <c r="A7821" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55230,7 +55230,7 @@
     <row r="7829">
       <c r="A7829" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -55573,7 +55573,7 @@
     <row r="7878">
       <c r="A7878" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -55685,7 +55685,7 @@
     <row r="7894">
       <c r="A7894" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -55748,7 +55748,7 @@
     <row r="7903">
       <c r="A7903" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -55804,7 +55804,7 @@
     <row r="7911">
       <c r="A7911" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -55909,7 +55909,7 @@
     <row r="7926">
       <c r="A7926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -55972,7 +55972,7 @@
     <row r="7935">
       <c r="A7935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56056,7 +56056,7 @@
     <row r="7947">
       <c r="A7947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -56098,7 +56098,7 @@
     <row r="7953">
       <c r="A7953" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -56217,7 +56217,7 @@
     <row r="7970">
       <c r="A7970" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -56294,7 +56294,7 @@
     <row r="7981">
       <c r="A7981" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56413,7 +56413,7 @@
     <row r="7998">
       <c r="A7998" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56455,14 +56455,14 @@
     <row r="8004">
       <c r="A8004" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8005">
       <c r="A8005" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56602,14 +56602,14 @@
     <row r="8025">
       <c r="A8025" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8026">
       <c r="A8026" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -56679,7 +56679,7 @@
     <row r="8036">
       <c r="A8036" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56896,7 +56896,7 @@
     <row r="8067">
       <c r="A8067" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -56952,7 +56952,7 @@
     <row r="8075">
       <c r="A8075" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -57113,7 +57113,7 @@
     <row r="8098">
       <c r="A8098" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -57141,7 +57141,7 @@
     <row r="8102">
       <c r="A8102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57162,7 +57162,7 @@
     <row r="8105">
       <c r="A8105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57316,14 +57316,14 @@
     <row r="8127">
       <c r="A8127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8128">
       <c r="A8128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -57351,7 +57351,7 @@
     <row r="8132">
       <c r="A8132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57463,7 +57463,7 @@
     <row r="8148">
       <c r="A8148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -57596,7 +57596,7 @@
     <row r="8167">
       <c r="A8167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -57610,7 +57610,7 @@
     <row r="8169">
       <c r="A8169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57631,7 +57631,7 @@
     <row r="8172">
       <c r="A8172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -57666,7 +57666,7 @@
     <row r="8177">
       <c r="A8177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57834,7 +57834,7 @@
     <row r="8201">
       <c r="A8201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57918,7 +57918,7 @@
     <row r="8213">
       <c r="A8213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57988,14 +57988,14 @@
     <row r="8223">
       <c r="A8223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8224">
       <c r="A8224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58030,7 +58030,7 @@
     <row r="8229">
       <c r="A8229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58044,7 +58044,7 @@
     <row r="8231">
       <c r="A8231" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58121,14 +58121,14 @@
     <row r="8242">
       <c r="A8242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8243">
       <c r="A8243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -58296,7 +58296,7 @@
     <row r="8267">
       <c r="A8267" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -58562,7 +58562,7 @@
     <row r="8305">
       <c r="A8305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -58611,7 +58611,7 @@
     <row r="8312">
       <c r="A8312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58625,14 +58625,14 @@
     <row r="8314">
       <c r="A8314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8315">
       <c r="A8315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58660,7 +58660,7 @@
     <row r="8319">
       <c r="A8319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58751,7 +58751,7 @@
     <row r="8332">
       <c r="A8332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58947,7 +58947,7 @@
     <row r="8360">
       <c r="A8360" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58996,7 +58996,7 @@
     <row r="8367">
       <c r="A8367" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59066,7 +59066,7 @@
     <row r="8377">
       <c r="A8377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59136,7 +59136,7 @@
     <row r="8387">
       <c r="A8387" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -59185,7 +59185,7 @@
     <row r="8394">
       <c r="A8394" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -59206,7 +59206,7 @@
     <row r="8397">
       <c r="A8397" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59227,7 +59227,7 @@
     <row r="8400">
       <c r="A8400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59269,14 +59269,14 @@
     <row r="8406">
       <c r="A8406" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8407">
       <c r="A8407" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59367,7 +59367,7 @@
     <row r="8420">
       <c r="A8420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59493,14 +59493,14 @@
     <row r="8438">
       <c r="A8438" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8439">
       <c r="A8439" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -59682,7 +59682,7 @@
     <row r="8465">
       <c r="A8465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59899,7 +59899,7 @@
     <row r="8496">
       <c r="A8496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59990,7 +59990,7 @@
     <row r="8509">
       <c r="A8509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -60123,7 +60123,7 @@
     <row r="8528">
       <c r="A8528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -60319,7 +60319,7 @@
     <row r="8556">
       <c r="A8556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -60515,7 +60515,7 @@
     <row r="8584">
       <c r="A8584" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -60725,7 +60725,7 @@
     <row r="8614">
       <c r="A8614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -60739,7 +60739,7 @@
     <row r="8616">
       <c r="A8616" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -60760,7 +60760,7 @@
     <row r="8619">
       <c r="A8619" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -60795,7 +60795,7 @@
     <row r="8624">
       <c r="A8624" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -60991,14 +60991,14 @@
     <row r="8652">
       <c r="A8652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8653">
       <c r="A8653" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -61040,7 +61040,7 @@
     <row r="8659">
       <c r="A8659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61110,7 +61110,7 @@
     <row r="8669">
       <c r="A8669" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61131,7 +61131,7 @@
     <row r="8672">
       <c r="A8672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61271,7 +61271,7 @@
     <row r="8692">
       <c r="A8692" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61292,7 +61292,7 @@
     <row r="8695">
       <c r="A8695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61383,7 +61383,7 @@
     <row r="8708">
       <c r="A8708" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -61614,7 +61614,7 @@
     <row r="8741">
       <c r="A8741" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61691,7 +61691,7 @@
     <row r="8752">
       <c r="A8752" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61789,7 +61789,7 @@
     <row r="8766">
       <c r="A8766" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -61852,7 +61852,7 @@
     <row r="8775">
       <c r="A8775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Y_pred_copy.xlsx
+++ b/Y_pred_copy.xlsx
@@ -1169,7 +1169,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5600,14 +5600,14 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12845,7 @@
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
     <row r="1808">
       <c r="A1808" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
     <row r="1820">
       <c r="A1820" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14364,7 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15512,7 +15512,7 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17934,7 +17934,7 @@
     <row r="2501">
       <c r="A2501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19131,7 +19131,7 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19607,7 +19607,7 @@
     <row r="2740">
       <c r="A2740" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20482,7 +20482,7 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20979,7 +20979,7 @@
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22176,7 @@
     <row r="3107">
       <c r="A3107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22246,7 +22246,7 @@
     <row r="3117">
       <c r="A3117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23562,7 +23562,7 @@
     <row r="3305">
       <c r="A3305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
     <row r="3328">
       <c r="A3328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23737,7 +23737,7 @@
     <row r="3330">
       <c r="A3330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -23968,7 +23968,7 @@
     <row r="3363">
       <c r="A3363" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -24248,7 +24248,7 @@
     <row r="3403">
       <c r="A3403" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
     <row r="3473">
       <c r="A3473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24808,7 +24808,7 @@
     <row r="3483">
       <c r="A3483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
     <row r="3579">
       <c r="A3579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
     <row r="3702">
       <c r="A3702" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27727,7 +27727,7 @@
     <row r="3900">
       <c r="A3900" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28427,7 +28427,7 @@
     <row r="4000">
       <c r="A4000" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29624,7 +29624,7 @@
     <row r="4171">
       <c r="A4171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29883,7 +29883,7 @@
     <row r="4208">
       <c r="A4208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30415,7 +30415,7 @@
     <row r="4284">
       <c r="A4284" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30485,7 +30485,7 @@
     <row r="4294">
       <c r="A4294" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30590,7 +30590,7 @@
     <row r="4309">
       <c r="A4309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -30625,7 +30625,7 @@
     <row r="4314">
       <c r="A4314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30653,7 +30653,7 @@
     <row r="4318">
       <c r="A4318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30793,7 +30793,7 @@
     <row r="4338">
       <c r="A4338" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
     <row r="4408">
       <c r="A4408" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31500,7 +31500,7 @@
     <row r="4439">
       <c r="A4439" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32172,7 +32172,7 @@
     <row r="4535">
       <c r="A4535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -32522,7 +32522,7 @@
     <row r="4585">
       <c r="A4585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -33033,7 +33033,7 @@
     <row r="4658">
       <c r="A4658" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34552,7 +34552,7 @@
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -36295,7 +36295,7 @@
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36820,7 +36820,7 @@
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36862,7 +36862,7 @@
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -37212,7 +37212,7 @@
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38031,7 +38031,7 @@
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -38479,7 +38479,7 @@
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38570,7 +38570,7 @@
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -38584,7 +38584,7 @@
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -38619,7 +38619,7 @@
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -38934,7 +38934,7 @@
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39305,7 +39305,7 @@
     <row r="5554">
       <c r="A5554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39494,7 +39494,7 @@
     <row r="5581">
       <c r="A5581" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -39662,7 +39662,7 @@
     <row r="5605">
       <c r="A5605" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39872,7 +39872,7 @@
     <row r="5635">
       <c r="A5635" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -40285,7 +40285,7 @@
     <row r="5694">
       <c r="A5694" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40635,7 +40635,7 @@
     <row r="5744">
       <c r="A5744" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40803,7 +40803,7 @@
     <row r="5768">
       <c r="A5768" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -41979,7 +41979,7 @@
     <row r="5936">
       <c r="A5936" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42273,7 +42273,7 @@
     <row r="5978">
       <c r="A5978" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42476,7 +42476,7 @@
     <row r="6007">
       <c r="A6007" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43176,7 +43176,7 @@
     <row r="6107">
       <c r="A6107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -43190,7 +43190,7 @@
     <row r="6109">
       <c r="A6109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43253,7 +43253,7 @@
     <row r="6118">
       <c r="A6118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -43414,7 +43414,7 @@
     <row r="6141">
       <c r="A6141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43785,7 +43785,7 @@
     <row r="6194">
       <c r="A6194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -43967,7 +43967,7 @@
     <row r="6220">
       <c r="A6220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44842,7 +44842,7 @@
     <row r="6345">
       <c r="A6345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -45227,7 +45227,7 @@
     <row r="6400">
       <c r="A6400" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46158,7 +46158,7 @@
     <row r="6533">
       <c r="A6533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46858,7 +46858,7 @@
     <row r="6633">
       <c r="A6633" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47019,7 +47019,7 @@
     <row r="6656">
       <c r="A6656" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47698,7 +47698,7 @@
     <row r="6753">
       <c r="A6753" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -47999,7 +47999,7 @@
     <row r="6796">
       <c r="A6796" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48167,7 +48167,7 @@
     <row r="6820">
       <c r="A6820" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48216,7 +48216,7 @@
     <row r="6827">
       <c r="A6827" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -48258,7 +48258,7 @@
     <row r="6833">
       <c r="A6833" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -49889,7 +49889,7 @@
     <row r="7066">
       <c r="A7066" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -50099,7 +50099,7 @@
     <row r="7096">
       <c r="A7096" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -50624,7 +50624,7 @@
     <row r="7171">
       <c r="A7171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50799,7 +50799,7 @@
     <row r="7196">
       <c r="A7196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51562,7 +51562,7 @@
     <row r="7305">
       <c r="A7305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51723,7 +51723,7 @@
     <row r="7328">
       <c r="A7328" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53431,7 +53431,7 @@
     <row r="7572">
       <c r="A7572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53473,7 +53473,7 @@
     <row r="7578">
       <c r="A7578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53788,7 +53788,7 @@
     <row r="7623">
       <c r="A7623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -54453,7 +54453,7 @@
     <row r="7718">
       <c r="A7718" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -54474,7 +54474,7 @@
     <row r="7721">
       <c r="A7721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -54691,7 +54691,7 @@
     <row r="7752">
       <c r="A7752" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55685,7 +55685,7 @@
     <row r="7894">
       <c r="A7894" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -56532,7 +56532,7 @@
     <row r="8015">
       <c r="A8015" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56763,7 +56763,7 @@
     <row r="8048">
       <c r="A8048" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -56798,7 +56798,7 @@
     <row r="8053">
       <c r="A8053" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -57596,7 +57596,7 @@
     <row r="8167">
       <c r="A8167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -57631,7 +57631,7 @@
     <row r="8172">
       <c r="A8172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -58002,7 +58002,7 @@
     <row r="8225">
       <c r="A8225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58030,7 +58030,7 @@
     <row r="8229">
       <c r="A8229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58212,7 +58212,7 @@
     <row r="8255">
       <c r="A8255" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58632,7 +58632,7 @@
     <row r="8315">
       <c r="A8315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58660,7 +58660,7 @@
     <row r="8319">
       <c r="A8319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -58996,7 +58996,7 @@
     <row r="8367">
       <c r="A8367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59136,7 +59136,7 @@
     <row r="8387">
       <c r="A8387" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -59682,7 +59682,7 @@
     <row r="8465">
       <c r="A8465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -60466,7 +60466,7 @@
     <row r="8577">
       <c r="A8577" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61005,7 +61005,7 @@
     <row r="8654">
       <c r="A8654" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -61040,7 +61040,7 @@
     <row r="8659">
       <c r="A8659" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -61383,7 +61383,7 @@
     <row r="8708">
       <c r="A8708" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61523,7 +61523,7 @@
     <row r="8728">
       <c r="A8728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61663,7 +61663,7 @@
     <row r="8748">
       <c r="A8748" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -61684,7 +61684,7 @@
     <row r="8751">
       <c r="A8751" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Y_pred_copy.xlsx
+++ b/Y_pred_copy.xlsx
@@ -1526,7 +1526,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -11025,7 +11025,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -12222,7 +12222,7 @@
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -12572,7 +12572,7 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12845,7 @@
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
     <row r="1799">
       <c r="A1799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14252,7 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15680,7 +15680,7 @@
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16947,7 +16947,7 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17276,7 +17276,7 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17759,7 +17759,7 @@
     <row r="2476">
       <c r="A2476" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -19131,7 +19131,7 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19607,7 +19607,7 @@
     <row r="2740">
       <c r="A2740" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21483,7 +21483,7 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22176,7 @@
     <row r="3107">
       <c r="A3107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23562,7 +23562,7 @@
     <row r="3305">
       <c r="A3305" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23737,7 +23737,7 @@
     <row r="3330">
       <c r="A3330" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23968,7 +23968,7 @@
     <row r="3363">
       <c r="A3363" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -24248,7 +24248,7 @@
     <row r="3403">
       <c r="A3403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24808,7 +24808,7 @@
     <row r="3483">
       <c r="A3483" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26250,7 +26250,7 @@
     <row r="3689">
       <c r="A3689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
     <row r="3702">
       <c r="A3702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26691,7 +26691,7 @@
     <row r="3752">
       <c r="A3752" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27244,7 +27244,7 @@
     <row r="3831">
       <c r="A3831" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27636,7 @@
     <row r="3887">
       <c r="A3887" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27727,7 +27727,7 @@
     <row r="3900">
       <c r="A3900" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -28350,7 +28350,7 @@
     <row r="3989">
       <c r="A3989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
     <row r="4150">
       <c r="A4150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29498,7 +29498,7 @@
     <row r="4153">
       <c r="A4153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29624,7 +29624,7 @@
     <row r="4171">
       <c r="A4171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29883,7 +29883,7 @@
     <row r="4208">
       <c r="A4208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30415,7 +30415,7 @@
     <row r="4284">
       <c r="A4284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30590,7 +30590,7 @@
     <row r="4309">
       <c r="A4309" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -30625,7 +30625,7 @@
     <row r="4314">
       <c r="A4314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30653,7 +30653,7 @@
     <row r="4318">
       <c r="A4318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30744,7 +30744,7 @@
     <row r="4331">
       <c r="A4331" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -30793,7 +30793,7 @@
     <row r="4338">
       <c r="A4338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -32172,7 +32172,7 @@
     <row r="4535">
       <c r="A4535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32522,7 +32522,7 @@
     <row r="4585">
       <c r="A4585" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32578,7 +32578,7 @@
     <row r="4593">
       <c r="A4593" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -33600,7 +33600,7 @@
     <row r="4739">
       <c r="A4739" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -34433,7 +34433,7 @@
     <row r="4858">
       <c r="A4858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -34552,7 +34552,7 @@
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -34972,7 +34972,7 @@
     <row r="4935">
       <c r="A4935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -35798,7 +35798,7 @@
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -37219,7 +37219,7 @@
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -37681,7 +37681,7 @@
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -38570,7 +38570,7 @@
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -38584,7 +38584,7 @@
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -38619,7 +38619,7 @@
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -39060,7 +39060,7 @@
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -39305,7 +39305,7 @@
     <row r="5554">
       <c r="A5554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -39347,7 +39347,7 @@
     <row r="5560">
       <c r="A5560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40285,7 +40285,7 @@
     <row r="5694">
       <c r="A5694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40523,7 +40523,7 @@
     <row r="5728">
       <c r="A5728" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -40635,7 +40635,7 @@
     <row r="5744">
       <c r="A5744" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -41615,7 +41615,7 @@
     <row r="5884">
       <c r="A5884" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -41979,7 +41979,7 @@
     <row r="5936">
       <c r="A5936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42273,7 +42273,7 @@
     <row r="5978">
       <c r="A5978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42476,7 +42476,7 @@
     <row r="6007">
       <c r="A6007" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -43190,7 +43190,7 @@
     <row r="6109">
       <c r="A6109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43211,7 +43211,7 @@
     <row r="6112">
       <c r="A6112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43743,7 +43743,7 @@
     <row r="6188">
       <c r="A6188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43785,7 +43785,7 @@
     <row r="6194">
       <c r="A6194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43967,7 +43967,7 @@
     <row r="6220">
       <c r="A6220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44555,7 +44555,7 @@
     <row r="6304">
       <c r="A6304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44625,7 +44625,7 @@
     <row r="6314">
       <c r="A6314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -44842,7 +44842,7 @@
     <row r="6345">
       <c r="A6345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45227,7 +45227,7 @@
     <row r="6400">
       <c r="A6400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -46158,7 +46158,7 @@
     <row r="6533">
       <c r="A6533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47019,7 +47019,7 @@
     <row r="6656">
       <c r="A6656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47698,7 +47698,7 @@
     <row r="6753">
       <c r="A6753" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -47999,7 +47999,7 @@
     <row r="6796">
       <c r="A6796" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48650,7 +48650,7 @@
     <row r="6889">
       <c r="A6889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49889,7 +49889,7 @@
     <row r="7066">
       <c r="A7066" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -50253,7 +50253,7 @@
     <row r="7118">
       <c r="A7118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50624,7 +50624,7 @@
     <row r="7171">
       <c r="A7171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50708,7 +50708,7 @@
     <row r="7183">
       <c r="A7183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50799,7 +50799,7 @@
     <row r="7196">
       <c r="A7196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51723,7 +51723,7 @@
     <row r="7328">
       <c r="A7328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52367,7 +52367,7 @@
     <row r="7420">
       <c r="A7420" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -54691,7 +54691,7 @@
     <row r="7752">
       <c r="A7752" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -56532,7 +56532,7 @@
     <row r="8015">
       <c r="A8015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -56623,7 +56623,7 @@
     <row r="8028">
       <c r="A8028" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56798,7 +56798,7 @@
     <row r="8053">
       <c r="A8053" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -57141,7 +57141,7 @@
     <row r="8102">
       <c r="A8102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57435,7 +57435,7 @@
     <row r="8144">
       <c r="A8144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -58002,7 +58002,7 @@
     <row r="8225">
       <c r="A8225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58660,7 +58660,7 @@
     <row r="8319">
       <c r="A8319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58996,7 +58996,7 @@
     <row r="8367">
       <c r="A8367" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59682,7 +59682,7 @@
     <row r="8465">
       <c r="A8465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -60466,7 +60466,7 @@
     <row r="8577">
       <c r="A8577" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -60683,7 +60683,7 @@
     <row r="8608">
       <c r="A8608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -60795,7 +60795,7 @@
     <row r="8624">
       <c r="A8624" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -61110,7 +61110,7 @@
     <row r="8669">
       <c r="A8669" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -61663,7 +61663,7 @@
     <row r="8748">
       <c r="A8748" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -61684,7 +61684,7 @@
     <row r="8751">
       <c r="A8751" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
